--- a/Documents/Projektskizze/Projektskizze_zGrobplanung.xlsx
+++ b/Documents/Projektskizze/Projektskizze_zGrobplanung.xlsx
@@ -269,34 +269,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,86 +747,86 @@
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="18">
+      <c r="I15" s="14">
         <v>41905</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>41912</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="15">
         <v>41919</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="16">
         <v>41926</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="11">
         <v>41933</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="15">
         <v>41940</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="16">
         <v>41947</v>
       </c>
-      <c r="P15" s="20">
+      <c r="P15" s="16">
         <v>41954</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>41961</v>
       </c>
-      <c r="R15" s="19">
+      <c r="R15" s="15">
         <v>41968</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="16">
         <v>41975</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="11">
         <v>41982</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="16" t="s">
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="11" t="s">
+      <c r="O16" s="20"/>
+      <c r="P16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="16" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="14"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="I17" s="9"/>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="17"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="17"/>
+      <c r="R17" s="13"/>
       <c r="S17" s="10"/>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
